--- a/tables/pointchange_in_segs.xlsx
+++ b/tables/pointchange_in_segs.xlsx
@@ -7,11 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Employed" r:id="rId3" sheetId="1"/>
-    <sheet name="Grade 1 or 2" r:id="rId4" sheetId="2"/>
-    <sheet name="Home Owner" r:id="rId5" sheetId="3"/>
-    <sheet name="Inactive" r:id="rId6" sheetId="4"/>
-    <sheet name="LLTI" r:id="rId7" sheetId="5"/>
-    <sheet name="No Car" r:id="rId8" sheetId="6"/>
+    <sheet name="Grades 3 to 5" r:id="rId4" sheetId="2"/>
+    <sheet name="Has Car" r:id="rId5" sheetId="3"/>
+    <sheet name="Home Owner" r:id="rId6" sheetId="4"/>
+    <sheet name="Inactive" r:id="rId7" sheetId="5"/>
+    <sheet name="LLTI" r:id="rId8" sheetId="6"/>
     <sheet name="Non-house" r:id="rId9" sheetId="7"/>
     <sheet name="Non-religious" r:id="rId10" sheetId="8"/>
     <sheet name="Not Scottish" r:id="rId11" sheetId="9"/>
@@ -2816,16 +2816,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0017000000000000001</v>
+        <v>-0.002100000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0015000000000000013</v>
+        <v>-0.0013999999999999985</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.999999999999992E-4</v>
+        <v>-5.999999999999998E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>9.000000000000015E-4</v>
+        <v>5.999999999999998E-4</v>
       </c>
     </row>
     <row r="9">
@@ -2856,16 +2856,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01579999999999998</v>
+        <v>-0.013600000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.010999999999999982</v>
+        <v>-0.010899999999999993</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.00410000000000002</v>
+        <v>-0.0049000000000000155</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004299999999999998</v>
+        <v>0.006399999999999989</v>
       </c>
     </row>
     <row r="11">
@@ -2876,16 +2876,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0014000000000000123</v>
+        <v>-0.007099999999999995</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0121</v>
+        <v>0.005499999999999949</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.015699999999999992</v>
+        <v>0.0121</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02699999999999997</v>
+        <v>0.026599999999999957</v>
       </c>
     </row>
     <row r="12">
@@ -2916,16 +2916,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.029900000000000038</v>
+        <v>-0.016900000000000026</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03700000000000003</v>
+        <v>-0.020100000000000007</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.016100000000000003</v>
+        <v>-0.009400000000000075</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01970000000000005</v>
+        <v>-0.007000000000000006</v>
       </c>
     </row>
     <row r="14">
@@ -2936,16 +2936,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.025399999999999978</v>
+        <v>0.02859999999999996</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.019299999999999984</v>
+        <v>0.021299999999999986</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.011400000000000077</v>
+        <v>0.011799999999999977</v>
       </c>
       <c r="F14" t="n">
-        <v>0.012499999999999956</v>
+        <v>-0.012900000000000023</v>
       </c>
     </row>
     <row r="15">
@@ -2956,16 +2956,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01999999999999999</v>
+        <v>0.023200000000000026</v>
       </c>
       <c r="D15" t="n">
-        <v>0.027100000000000013</v>
+        <v>0.04360000000000003</v>
       </c>
       <c r="E15" t="n">
-        <v>0.007200000000000012</v>
+        <v>0.07550000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.015899999999999997</v>
+        <v>0.06640000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2976,16 +2976,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>1.084299999999999</v>
+        <v>0.4317999999999991</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2073999999999998</v>
+        <v>-0.08399999999999963</v>
       </c>
       <c r="E16" t="n">
-        <v>0.27889999999999837</v>
+        <v>-0.016600000000000392</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2666000000000004</v>
+        <v>-0.31230000000000047</v>
       </c>
     </row>
     <row r="17">
@@ -2996,16 +2996,16 @@
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0034999999999999996</v>
+        <v>-0.0010000000000000009</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0031000000000000055</v>
+        <v>2.999999999999947E-4</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.001899999999999999</v>
+        <v>1.999999999999988E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>5.000000000000004E-4</v>
       </c>
     </row>
     <row r="18">
@@ -3016,16 +3016,16 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.006000000000000005</v>
+        <v>-0.006399999999999961</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.015800000000000036</v>
+        <v>0.005900000000000016</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01849999999999996</v>
+        <v>0.009399999999999964</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02560000000000001</v>
+        <v>0.0230999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3036,16 +3036,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.0000000000000014E-4</v>
+        <v>-5.0E-4</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.000000000000001E-4</v>
+        <v>2.999999999999999E-4</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.0000000000000014E-4</v>
+        <v>-1.0000000000000005E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001</v>
+        <v>3.0000000000000003E-4</v>
       </c>
     </row>
     <row r="20">
@@ -3056,16 +3056,16 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.020500000000000074</v>
+        <v>-0.009099999999999997</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.018399999999999972</v>
+        <v>0.007500000000000007</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.008399999999999963</v>
+        <v>0.0010000000000000009</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02059999999999995</v>
+        <v>0.023999999999999966</v>
       </c>
     </row>
   </sheetData>
@@ -3107,16 +3107,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01749999999999996</v>
+        <v>0.008699999999999986</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0017999999999999683</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.020299999999999985</v>
+        <v>0.004699999999999982</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02629999999999999</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="3">
@@ -3127,16 +3127,16 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00720000000000004</v>
+        <v>0.021600000000000008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.018600000000000005</v>
+        <v>0.01150000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01050000000000001</v>
+        <v>0.017499999999999988</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.006400000000000017</v>
+        <v>-0.012300000000000005</v>
       </c>
     </row>
     <row r="4">
@@ -3147,16 +3147,16 @@
         <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.006000000000000005</v>
+        <v>0.015500000000000014</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008599999999999997</v>
+        <v>-5.000000000000004E-4</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01599999999999996</v>
+        <v>0.01050000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.017400000000000027</v>
+        <v>-0.019899999999999973</v>
       </c>
     </row>
     <row r="5">
@@ -3167,16 +3167,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.013399999999999967</v>
+        <v>0.011199999999999988</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0015000000000000013</v>
+        <v>-0.005800000000000027</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.019699999999999995</v>
+        <v>0.005599999999999994</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.023800000000000043</v>
+        <v>-0.0242</v>
       </c>
     </row>
     <row r="6">
@@ -3187,16 +3187,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.019200000000000023</v>
+        <v>-0.0022999999999999965</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005299999999999999</v>
+        <v>-0.009599999999999997</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.017999999999999988</v>
+        <v>0.0014000000000000123</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03570000000000004</v>
+        <v>-0.02529999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3207,16 +3207,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.031399999999999983</v>
+        <v>0.0028000000000000247</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.005499999999999949</v>
+        <v>-0.010399999999999965</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.028799999999999937</v>
+        <v>0.003400000000000014</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0393</v>
+        <v>-0.034499999999999975</v>
       </c>
     </row>
     <row r="8">
@@ -3227,16 +3227,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.005499999999999998</v>
+        <v>3.0000000000000165E-4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.999999999999976E-4</v>
+        <v>-0.001899999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.006599999999999995</v>
+        <v>7.000000000000062E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.011899999999999994</v>
+        <v>-0.0067999999999999935</v>
       </c>
     </row>
     <row r="9">
@@ -3247,16 +3247,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.03630000000000003</v>
+        <v>7.999999999999952E-4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.019600000000000006</v>
+        <v>-0.01150000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03539999999999999</v>
+        <v>0.0010000000000000009</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.057999999999999996</v>
+        <v>-0.033899999999999986</v>
       </c>
     </row>
     <row r="10">
@@ -3267,16 +3267,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.07769999999999999</v>
+        <v>-0.0016999999999999793</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.05970000000000003</v>
+        <v>-0.021299999999999986</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06659999999999999</v>
+        <v>-0.0025000000000000022</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09809999999999997</v>
+        <v>-0.05840000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3287,16 +3287,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.021399999999999975</v>
+        <v>0.022199999999999998</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.029200000000000004</v>
+        <v>0.017900000000000027</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.05259999999999998</v>
+        <v>0.0011999999999999789</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03189999999999993</v>
+        <v>0.012599999999999945</v>
       </c>
     </row>
     <row r="12">
@@ -3307,16 +3307,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.009399999999999992</v>
+        <v>-0.010199999999999987</v>
       </c>
       <c r="D12" t="n">
-        <v>0.009000000000000008</v>
+        <v>-0.014000000000000012</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.006199999999999983</v>
+        <v>0.00269999999999998</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02849999999999997</v>
+        <v>-0.03130000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -3327,16 +3327,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.038000000000000034</v>
+        <v>-0.022600000000000064</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04589999999999994</v>
+        <v>-0.026800000000000046</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02400000000000002</v>
+        <v>-0.015499999999999958</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0240999999999999</v>
+        <v>-0.017100000000000004</v>
       </c>
     </row>
     <row r="14">
@@ -3347,16 +3347,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03959999999999997</v>
+        <v>-0.029799999999999993</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0315</v>
+        <v>-0.018100000000000005</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.017600000000000005</v>
+        <v>-0.010599999999999984</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.011700000000000016</v>
+        <v>-0.027099999999999985</v>
       </c>
     </row>
     <row r="15">
@@ -3367,16 +3367,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06090000000000001</v>
+        <v>0.10140000000000005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08489999999999998</v>
+        <v>0.08990000000000004</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.005800000000000027</v>
+        <v>0.06209999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0032999999999999696</v>
+        <v>0.032799999999999996</v>
       </c>
     </row>
     <row r="16">
@@ -3387,16 +3387,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>1.1244999999999976</v>
+        <v>0.5334000000000003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3039000000000005</v>
+        <v>0.09059999999999846</v>
       </c>
       <c r="E16" t="n">
-        <v>0.47550000000000026</v>
+        <v>0.15230000000000032</v>
       </c>
       <c r="F16" t="n">
-        <v>0.10400000000000098</v>
+        <v>-0.15729999999999933</v>
       </c>
     </row>
     <row r="17">
@@ -3407,16 +3407,16 @@
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0036999999999999984</v>
+        <v>-0.0019000000000000024</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.004200000000000002</v>
+        <v>-0.0014000000000000054</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0023</v>
+        <v>-0.0010000000000000009</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.999999999999992E-4</v>
+        <v>-1.0000000000000113E-4</v>
       </c>
     </row>
     <row r="18">
@@ -3427,16 +3427,16 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.028000000000000025</v>
+        <v>0.014000000000000012</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.04620000000000002</v>
+        <v>0.013800000000000034</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.059800000000000075</v>
+        <v>-0.0027000000000000357</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02739999999999998</v>
+        <v>0.017800000000000038</v>
       </c>
     </row>
     <row r="19">
@@ -3447,16 +3447,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.000000000000001E-4</v>
+        <v>-3.0000000000000014E-4</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.999999999999999E-4</v>
+        <v>1.0000000000000026E-4</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.9999999999999998E-4</v>
+        <v>-1.0000000000000005E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>1.9999999999999998E-4</v>
+        <v>5.000000000000001E-4</v>
       </c>
     </row>
     <row r="20">
@@ -3467,16 +3467,16 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.022500000000000075</v>
+        <v>-0.010499999999999954</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03260000000000002</v>
+        <v>-0.007400000000000018</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.017699999999999938</v>
+        <v>-0.005199999999999982</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.006899999999999962</v>
+        <v>0.012800000000000034</v>
       </c>
     </row>
   </sheetData>
@@ -3518,16 +3518,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.037099999999999994</v>
+        <v>-0.01749999999999996</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.019100000000000006</v>
+        <v>-0.0017999999999999683</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.009500000000000008</v>
+        <v>-0.020299999999999985</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.060100000000000015</v>
+        <v>-0.02629999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3538,16 +3538,16 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.02840000000000001</v>
+        <v>0.00720000000000004</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.008099999999999996</v>
+        <v>0.018600000000000005</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002799999999999997</v>
+        <v>-0.01050000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.038599999999999995</v>
+        <v>-0.006400000000000017</v>
       </c>
     </row>
     <row r="4">
@@ -3558,16 +3558,16 @@
         <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.033100000000000004</v>
+        <v>-0.006000000000000005</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.013700000000000004</v>
+        <v>0.008599999999999997</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.003700000000000009</v>
+        <v>-0.01599999999999996</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05069999999999998</v>
+        <v>-0.017400000000000027</v>
       </c>
     </row>
     <row r="5">
@@ -3578,16 +3578,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.035500000000000004</v>
+        <v>-0.013399999999999967</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.016699999999999993</v>
+        <v>0.0015000000000000013</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00839999999999999</v>
+        <v>-0.019699999999999995</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05729999999999999</v>
+        <v>-0.023800000000000043</v>
       </c>
     </row>
     <row r="6">
@@ -3598,16 +3598,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.009499999999999998</v>
+        <v>-0.019200000000000023</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0034999999999999996</v>
+        <v>-0.005299999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.000000000000033E-4</v>
+        <v>-0.017999999999999988</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.020499999999999997</v>
+        <v>-0.03570000000000004</v>
       </c>
     </row>
     <row r="7">
@@ -3618,16 +3618,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.04530000000000001</v>
+        <v>-0.031399999999999983</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0204</v>
+        <v>-0.005499999999999949</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00789999999999999</v>
+        <v>-0.028799999999999937</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07520000000000002</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="8">
@@ -3638,16 +3638,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0029000000000000007</v>
+        <v>-0.005499999999999998</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0011000000000000003</v>
+        <v>-3.999999999999976E-4</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.999999999999993E-4</v>
+        <v>-0.006599999999999995</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0057</v>
+        <v>-0.011899999999999994</v>
       </c>
     </row>
     <row r="9">
@@ -3658,16 +3658,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.013399999999999999</v>
+        <v>-0.03630000000000003</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.004799999999999999</v>
+        <v>-0.019600000000000006</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0010000000000000009</v>
+        <v>-0.03539999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.027800000000000005</v>
+        <v>-0.057999999999999996</v>
       </c>
     </row>
     <row r="10">
@@ -3678,16 +3678,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.022000000000000006</v>
+        <v>-0.07769999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.007399999999999997</v>
+        <v>-0.05970000000000003</v>
       </c>
       <c r="E10" t="n">
-        <v>5.000000000000004E-4</v>
+        <v>-0.06659999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.048</v>
+        <v>-0.09809999999999997</v>
       </c>
     </row>
     <row r="11">
@@ -3698,16 +3698,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.04820000000000002</v>
+        <v>-0.021399999999999975</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.033399999999999985</v>
+        <v>-0.029200000000000004</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01589999999999997</v>
+        <v>-0.05259999999999998</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.07039999999999996</v>
+        <v>-0.03189999999999993</v>
       </c>
     </row>
     <row r="12">
@@ -3718,16 +3718,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.012200000000000003</v>
+        <v>-0.009399999999999992</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.005200000000000003</v>
+        <v>0.009000000000000008</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.999999999999992E-4</v>
+        <v>-0.006199999999999983</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.028199999999999996</v>
+        <v>-0.02849999999999997</v>
       </c>
     </row>
     <row r="13">
@@ -3738,16 +3738,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.023499999999999965</v>
+        <v>-0.038000000000000034</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01969999999999994</v>
+        <v>-0.04589999999999994</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.007799999999999918</v>
+        <v>-0.02400000000000002</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008599999999999941</v>
+        <v>-0.0240999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3758,16 +3758,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03300000000000003</v>
+        <v>-0.03959999999999997</v>
       </c>
       <c r="D14" t="n">
-        <v>0.023400000000000087</v>
+        <v>-0.0315</v>
       </c>
       <c r="E14" t="n">
-        <v>0.018299999999999983</v>
+        <v>-0.017600000000000005</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05159999999999998</v>
+        <v>-0.011700000000000016</v>
       </c>
     </row>
     <row r="15">
@@ -3778,16 +3778,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.015699999999999992</v>
+        <v>0.06090000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.013800000000000007</v>
+        <v>0.08489999999999998</v>
       </c>
       <c r="E15" t="n">
-        <v>0.010399999999999993</v>
+        <v>-0.005800000000000027</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.015700000000000006</v>
+        <v>0.0032999999999999696</v>
       </c>
     </row>
     <row r="16">
@@ -3798,16 +3798,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7520999999999987</v>
+        <v>1.1244999999999976</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09370000000000012</v>
+        <v>0.3039000000000005</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1755999999999993</v>
+        <v>0.47550000000000026</v>
       </c>
       <c r="F16" t="n">
-        <v>0.018500000000001293</v>
+        <v>0.10400000000000098</v>
       </c>
     </row>
     <row r="17">
@@ -3818,16 +3818,16 @@
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0030999999999999986</v>
+        <v>-0.0036999999999999984</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.0000000000000286E-4</v>
+        <v>-0.004200000000000002</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0029000000000000033</v>
+        <v>-0.0023</v>
       </c>
       <c r="F17" t="n">
-        <v>1.999999999999988E-4</v>
+        <v>-6.999999999999992E-4</v>
       </c>
     </row>
     <row r="18">
@@ -3838,16 +3838,16 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.047699999999999965</v>
+        <v>-0.028000000000000025</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0358</v>
+        <v>-0.04620000000000002</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.012900000000000023</v>
+        <v>-0.059800000000000075</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.06090000000000001</v>
+        <v>-0.02739999999999998</v>
       </c>
     </row>
     <row r="19">
@@ -3858,16 +3858,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.000000000000001E-4</v>
+        <v>-2.000000000000001E-4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0023999999999999994</v>
+        <v>-7.999999999999999E-4</v>
       </c>
       <c r="E19" t="n">
-        <v>7.000000000000001E-4</v>
+        <v>-1.9999999999999998E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0012</v>
+        <v>1.9999999999999998E-4</v>
       </c>
     </row>
     <row r="20">
@@ -3878,16 +3878,16 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.010400000000000076</v>
+        <v>-0.022500000000000075</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.010299999999999976</v>
+        <v>-0.03260000000000002</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005499999999999949</v>
+        <v>-0.017699999999999938</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0031999999999999806</v>
+        <v>-0.006899999999999962</v>
       </c>
     </row>
   </sheetData>
@@ -3929,16 +3929,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02460000000000001</v>
+        <v>-0.037099999999999994</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.016100000000000003</v>
+        <v>-0.019100000000000006</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.021800000000000014</v>
+        <v>-0.009500000000000008</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.026199999999999973</v>
+        <v>-0.060100000000000015</v>
       </c>
     </row>
     <row r="3">
@@ -3949,16 +3949,16 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.020199999999999996</v>
+        <v>-0.02840000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0059999999999999915</v>
+        <v>-0.008099999999999996</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.013499999999999998</v>
+        <v>0.002799999999999997</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.016600000000000004</v>
+        <v>-0.038599999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -3969,16 +3969,16 @@
         <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.022300000000000014</v>
+        <v>-0.033100000000000004</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.011899999999999994</v>
+        <v>-0.013700000000000004</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.018699999999999994</v>
+        <v>-0.003700000000000009</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.021999999999999992</v>
+        <v>-0.05069999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -3989,16 +3989,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.023300000000000015</v>
+        <v>-0.035500000000000004</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.014100000000000001</v>
+        <v>-0.016699999999999993</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.021199999999999997</v>
+        <v>-0.00839999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02510000000000001</v>
+        <v>-0.05729999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4009,16 +4009,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.008900000000000002</v>
+        <v>-0.009499999999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.004199999999999999</v>
+        <v>-0.0034999999999999996</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.006200000000000004</v>
+        <v>-6.000000000000033E-4</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.010599999999999998</v>
+        <v>-0.020499999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -4029,16 +4029,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.032999999999999974</v>
+        <v>-0.04530000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0184</v>
+        <v>-0.0204</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.025200000000000028</v>
+        <v>-0.00789999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0343</v>
+        <v>-0.07520000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -4049,16 +4049,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0031000000000000003</v>
+        <v>-0.0029000000000000007</v>
       </c>
       <c r="D8" t="n">
         <v>-0.0011000000000000003</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.002</v>
+        <v>-3.999999999999993E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0034000000000000002</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="9">
@@ -4069,16 +4069,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.014200000000000004</v>
+        <v>-0.013399999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005600000000000001</v>
+        <v>-0.004799999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009399999999999999</v>
+        <v>-0.0010000000000000009</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.015600000000000003</v>
+        <v>-0.027800000000000005</v>
       </c>
     </row>
     <row r="10">
@@ -4089,16 +4089,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.023599999999999996</v>
+        <v>-0.022000000000000006</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.010599999999999998</v>
+        <v>-0.007399999999999997</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.016</v>
+        <v>5.000000000000004E-4</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.025399999999999992</v>
+        <v>-0.048</v>
       </c>
     </row>
     <row r="11">
@@ -4109,16 +4109,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01479999999999998</v>
+        <v>-0.04820000000000002</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.013399999999999995</v>
+        <v>-0.033399999999999985</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.012300000000000005</v>
+        <v>-0.01589999999999997</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02419999999999997</v>
+        <v>-0.07039999999999996</v>
       </c>
     </row>
     <row r="12">
@@ -4129,16 +4129,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0086</v>
+        <v>-0.012200000000000003</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.005400000000000002</v>
+        <v>-0.005200000000000003</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.006500000000000002</v>
+        <v>-6.999999999999992E-4</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.012400000000000001</v>
+        <v>-0.028199999999999996</v>
       </c>
     </row>
     <row r="13">
@@ -4149,16 +4149,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.029000000000000026</v>
+        <v>-0.023499999999999965</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.015699999999999936</v>
+        <v>-0.01969999999999994</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.011500000000000066</v>
+        <v>-0.007799999999999918</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007899999999999907</v>
+        <v>-0.008599999999999941</v>
       </c>
     </row>
     <row r="14">
@@ -4169,16 +4169,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.013299999999999979</v>
+        <v>0.03300000000000003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.016899999999999915</v>
+        <v>0.023400000000000087</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0015000000000000568</v>
+        <v>0.018299999999999983</v>
       </c>
       <c r="F14" t="n">
-        <v>0.025399999999999978</v>
+        <v>0.05159999999999998</v>
       </c>
     </row>
     <row r="15">
@@ -4189,16 +4189,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0097</v>
+        <v>-0.015699999999999992</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.006199999999999997</v>
+        <v>0.013800000000000007</v>
       </c>
       <c r="E15" t="n">
-        <v>8.99999999999998E-4</v>
+        <v>0.010399999999999993</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009800000000000003</v>
+        <v>-0.015700000000000006</v>
       </c>
     </row>
     <row r="16">
@@ -4209,16 +4209,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>1.3887999999999998</v>
+        <v>0.7520999999999987</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2945999999999991</v>
+        <v>0.09370000000000012</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2367999999999988</v>
+        <v>-0.1755999999999993</v>
       </c>
       <c r="F16" t="n">
-        <v>0.20359999999999978</v>
+        <v>0.018500000000001293</v>
       </c>
     </row>
     <row r="17">
@@ -4229,16 +4229,16 @@
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.006100000000000001</v>
+        <v>-0.0030999999999999986</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0039000000000000007</v>
+        <v>-1.0000000000000286E-4</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0010000000000000009</v>
+        <v>0.0029000000000000033</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.00000000000001E-4</v>
+        <v>1.999999999999988E-4</v>
       </c>
     </row>
     <row r="18">
@@ -4249,16 +4249,16 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.009500000000000008</v>
+        <v>-0.047699999999999965</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.007900000000000018</v>
+        <v>-0.0358</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.006599999999999995</v>
+        <v>-0.012900000000000023</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.015899999999999997</v>
+        <v>-0.06090000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -4269,16 +4269,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0012</v>
+        <v>-8.000000000000001E-4</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.000000000000003E-4</v>
+        <v>0.0023999999999999994</v>
       </c>
       <c r="E19" t="n">
-        <v>-9.999999999999994E-5</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.9999999999999998E-4</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="20">
@@ -4289,16 +4289,16 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.022399999999999975</v>
+        <v>-0.010400000000000076</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.027200000000000002</v>
+        <v>-0.010299999999999976</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.008199999999999985</v>
+        <v>0.005499999999999949</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.014100000000000001</v>
+        <v>-0.0031999999999999806</v>
       </c>
     </row>
   </sheetData>
@@ -4340,16 +4340,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008699999999999986</v>
+        <v>-0.02460000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.009000000000000008</v>
+        <v>-0.016100000000000003</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004699999999999982</v>
+        <v>-0.021800000000000014</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0257</v>
+        <v>-0.026199999999999973</v>
       </c>
     </row>
     <row r="3">
@@ -4360,16 +4360,16 @@
         <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>0.021600000000000008</v>
+        <v>-0.020199999999999996</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01150000000000001</v>
+        <v>-0.0059999999999999915</v>
       </c>
       <c r="E3" t="n">
-        <v>0.017499999999999988</v>
+        <v>-0.013499999999999998</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.012300000000000005</v>
+        <v>-0.016600000000000004</v>
       </c>
     </row>
     <row r="4">
@@ -4380,16 +4380,16 @@
         <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>0.015500000000000014</v>
+        <v>-0.022300000000000014</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.000000000000004E-4</v>
+        <v>-0.011899999999999994</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01050000000000001</v>
+        <v>-0.018699999999999994</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.019899999999999973</v>
+        <v>-0.021999999999999992</v>
       </c>
     </row>
     <row r="5">
@@ -4400,16 +4400,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>0.011199999999999988</v>
+        <v>-0.023300000000000015</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.005800000000000027</v>
+        <v>-0.014100000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005599999999999994</v>
+        <v>-0.021199999999999997</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0242</v>
+        <v>-0.02510000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -4420,16 +4420,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0022999999999999965</v>
+        <v>-0.008900000000000002</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.009599999999999997</v>
+        <v>-0.004199999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0014000000000000123</v>
+        <v>-0.006200000000000004</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02529999999999999</v>
+        <v>-0.010599999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -4440,16 +4440,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0028000000000000247</v>
+        <v>-0.032999999999999974</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.010399999999999965</v>
+        <v>-0.0184</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003400000000000014</v>
+        <v>-0.025200000000000028</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.034499999999999975</v>
+        <v>-0.0343</v>
       </c>
     </row>
     <row r="8">
@@ -4460,16 +4460,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.0000000000000165E-4</v>
+        <v>-0.0031000000000000003</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.003499999999999996</v>
+        <v>-0.0011000000000000003</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.999999999999976E-4</v>
+        <v>-0.002</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0102</v>
+        <v>-0.0034000000000000002</v>
       </c>
     </row>
     <row r="9">
@@ -4480,16 +4480,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>7.999999999999952E-4</v>
+        <v>-0.014200000000000004</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01150000000000001</v>
+        <v>-0.005600000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0010000000000000009</v>
+        <v>-0.009399999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.033899999999999986</v>
+        <v>-0.015600000000000003</v>
       </c>
     </row>
     <row r="10">
@@ -4500,16 +4500,16 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0011999999999999789</v>
+        <v>-0.023599999999999996</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0126</v>
+        <v>-0.010599999999999998</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004500000000000004</v>
+        <v>-0.016</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.042100000000000026</v>
+        <v>-0.025399999999999992</v>
       </c>
     </row>
     <row r="11">
@@ -4520,16 +4520,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.032399999999999984</v>
+        <v>-0.01479999999999998</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.03199999999999997</v>
+        <v>-0.013399999999999995</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0015000000000000013</v>
+        <v>-0.012300000000000005</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04410000000000003</v>
+        <v>-0.02419999999999997</v>
       </c>
     </row>
     <row r="12">
@@ -4540,16 +4540,16 @@
         <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.010199999999999987</v>
+        <v>-0.0086</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.014000000000000012</v>
+        <v>-0.005400000000000002</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00269999999999998</v>
+        <v>-0.006500000000000002</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03130000000000002</v>
+        <v>-0.012400000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4560,16 +4560,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>3.00000000000078E-4</v>
+        <v>-0.029000000000000026</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.005600000000000049</v>
+        <v>-0.015699999999999936</v>
       </c>
       <c r="E13" t="n">
-        <v>8.000000000000229E-4</v>
+        <v>-0.011500000000000066</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005099999999999993</v>
+        <v>-0.007899999999999907</v>
       </c>
     </row>
     <row r="14">
@@ -4580,16 +4580,16 @@
         <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02969999999999995</v>
+        <v>-0.013299999999999979</v>
       </c>
       <c r="D14" t="n">
-        <v>0.011600000000000055</v>
+        <v>0.016899999999999915</v>
       </c>
       <c r="E14" t="n">
-        <v>0.010399999999999965</v>
+        <v>-0.0015000000000000568</v>
       </c>
       <c r="F14" t="n">
-        <v>0.027800000000000047</v>
+        <v>0.025399999999999978</v>
       </c>
     </row>
     <row r="15">
@@ -4600,16 +4600,16 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.018100000000000005</v>
+        <v>-0.0097</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.001799999999999996</v>
+        <v>-0.006199999999999997</v>
       </c>
       <c r="E15" t="n">
-        <v>0.037000000000000005</v>
+        <v>8.99999999999998E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009000000000000008</v>
+        <v>-0.009800000000000003</v>
       </c>
     </row>
     <row r="16">
@@ -4620,16 +4620,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5960000000000001</v>
+        <v>1.3887999999999998</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.21850000000000058</v>
+        <v>0.2945999999999991</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4432999999999998</v>
+        <v>0.2367999999999988</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.11679999999999957</v>
+        <v>0.20359999999999978</v>
       </c>
     </row>
     <row r="17">
@@ -4640,16 +4640,16 @@
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002799999999999997</v>
+        <v>-0.006100000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0031000000000000055</v>
+        <v>-0.0039000000000000007</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004799999999999999</v>
+        <v>-0.0010000000000000009</v>
       </c>
       <c r="F17" t="n">
-        <v>8.99999999999998E-4</v>
+        <v>-7.00000000000001E-4</v>
       </c>
     </row>
     <row r="18">
@@ -4660,16 +4660,16 @@
         <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.022899999999999976</v>
+        <v>-0.009500000000000008</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.022799999999999987</v>
+        <v>-0.007900000000000018</v>
       </c>
       <c r="E18" t="n">
-        <v>0.011099999999999999</v>
+        <v>-0.006599999999999995</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.031799999999999995</v>
+        <v>-0.015899999999999997</v>
       </c>
     </row>
     <row r="19">
@@ -4680,16 +4680,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.000000000000004E-4</v>
+        <v>-0.0012</v>
       </c>
       <c r="D19" t="n">
-        <v>0.005200000000000001</v>
+        <v>-6.000000000000003E-4</v>
       </c>
       <c r="E19" t="n">
-        <v>5.0E-4</v>
+        <v>-9.999999999999994E-5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0017</v>
+        <v>-1.9999999999999998E-4</v>
       </c>
     </row>
     <row r="20">
@@ -4700,16 +4700,16 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009800000000000031</v>
+        <v>-0.022399999999999975</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01330000000000009</v>
+        <v>-0.027200000000000002</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01429999999999998</v>
+        <v>-0.008199999999999985</v>
       </c>
       <c r="F20" t="n">
-        <v>0.006900000000000017</v>
+        <v>-0.014100000000000001</v>
       </c>
     </row>
   </sheetData>
